--- a/Centerport/bin/Debug/MMSDATA/Template/Source/Pre-Employment Medical Exam-TEMPLATE.xlsx
+++ b/Centerport/bin/Debug/MMSDATA/Template/Source/Pre-Employment Medical Exam-TEMPLATE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Devs\SGS\ClinicalLaboratoryInformationManagementSystem\Centerport\bin\Debug\MMSDATA\Template\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Devs\SGS\MedicalManagementSoftware-V2023.09.04.02\Centerport\bin\Debug\MMSDATA\Template\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1381,198 +1381,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1597,11 +1405,203 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2761,28 +2761,15 @@
                 <a:buNone/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="244061"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial"/>
-                  <a:ea typeface="Arial"/>
-                  <a:cs typeface="Arial"/>
-                  <a:sym typeface="Arial"/>
-                </a:rPr>
-                <a:t>Unit 11 &amp; 12 Bridgepoint Commercial Complex</a:t>
-              </a:r>
-              <a:r>
                 <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="244061"/>
                   </a:solidFill>
                   <a:latin typeface="Arial"/>
-                  <a:ea typeface="Arial"/>
                   <a:cs typeface="Arial"/>
                   <a:sym typeface="Arial"/>
                 </a:rPr>
-                <a:t> Maharlika Highway,</a:t>
+                <a:t>F.P Perez Building, Brgy. Parian Manila S. Rd. Calamba City, Laguna </a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2804,29 +2791,7 @@
                   <a:cs typeface="Arial"/>
                   <a:sym typeface="Arial"/>
                 </a:rPr>
-                <a:t>Santa Anastacia, Sto. Tomas, Batangas</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buNone/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="244061"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial"/>
-                  <a:cs typeface="Arial"/>
-                  <a:sym typeface="Arial"/>
-                </a:rPr>
-                <a:t>Tel. Nos. (043) 450-3644 / 0966-356-0350</a:t>
+                <a:t>Tel. Nos. (049)523-71-49 / (049)530-37-66</a:t>
               </a:r>
               <a:endParaRPr sz="1100"/>
             </a:p>
@@ -3187,7 +3152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AT96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="A40" sqref="A40:I46"/>
     </sheetView>
   </sheetViews>
@@ -3244,86 +3209,86 @@
       <c r="Y2" s="11"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="I3" s="164" t="s">
+      <c r="I3" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="145"/>
+      <c r="X3" s="145"/>
+      <c r="Y3" s="145"/>
     </row>
     <row r="4" spans="1:27" ht="18.75" customHeight="1">
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="164"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="164"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="164"/>
-      <c r="S4" s="164"/>
-      <c r="T4" s="164"/>
-      <c r="U4" s="164"/>
-      <c r="V4" s="164"/>
-      <c r="W4" s="164"/>
-      <c r="X4" s="164"/>
-      <c r="Y4" s="164"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="145"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="145"/>
+      <c r="V4" s="145"/>
+      <c r="W4" s="145"/>
+      <c r="X4" s="145"/>
+      <c r="Y4" s="145"/>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1">
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="164"/>
-      <c r="S5" s="164"/>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="164"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="145"/>
+      <c r="Y5" s="145"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="18"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1">
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="164"/>
-      <c r="O6" s="164"/>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="164"/>
-      <c r="R6" s="164"/>
-      <c r="S6" s="164"/>
-      <c r="T6" s="164"/>
-      <c r="U6" s="164"/>
-      <c r="V6" s="164"/>
-      <c r="W6" s="164"/>
-      <c r="X6" s="164"/>
-      <c r="Y6" s="164"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="18"/>
     </row>
@@ -3349,33 +3314,33 @@
       <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="143"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="143"/>
-      <c r="R8" s="143"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="143"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="143"/>
-      <c r="W8" s="143"/>
-      <c r="X8" s="143"/>
-      <c r="Y8" s="143"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="166"/>
+      <c r="R8" s="166"/>
+      <c r="S8" s="166"/>
+      <c r="T8" s="166"/>
+      <c r="U8" s="166"/>
+      <c r="V8" s="166"/>
+      <c r="W8" s="166"/>
+      <c r="X8" s="166"/>
+      <c r="Y8" s="166"/>
       <c r="Z8" s="21"/>
       <c r="AA8" s="21"/>
     </row>
@@ -3383,16 +3348,16 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="139" t="s">
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="139"/>
+      <c r="G9" s="179"/>
       <c r="H9" s="99" t="s">
         <v>6</v>
       </c>
@@ -3402,15 +3367,15 @@
       <c r="O9" s="21"/>
       <c r="P9" s="75"/>
       <c r="Q9" s="75"/>
-      <c r="R9" s="152" t="s">
+      <c r="R9" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="152"/>
+      <c r="S9" s="174"/>
+      <c r="T9" s="174"/>
+      <c r="U9" s="174"/>
+      <c r="V9" s="174"/>
+      <c r="W9" s="174"/>
+      <c r="X9" s="174"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
       <c r="AA9" s="21"/>
@@ -3419,16 +3384,16 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="154" t="s">
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="154"/>
+      <c r="G10" s="160"/>
       <c r="H10" s="100" t="s">
         <v>12</v>
       </c>
@@ -3438,15 +3403,15 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="153" t="s">
+      <c r="R10" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="175"/>
+      <c r="U10" s="175"/>
+      <c r="V10" s="175"/>
+      <c r="W10" s="175"/>
+      <c r="X10" s="175"/>
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
       <c r="AA10" s="21"/>
@@ -3455,12 +3420,12 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
@@ -3477,33 +3442,33 @@
       <c r="AA11" s="21"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="145"/>
-      <c r="R12" s="145"/>
-      <c r="S12" s="145"/>
-      <c r="T12" s="145"/>
-      <c r="U12" s="145"/>
-      <c r="V12" s="145"/>
-      <c r="W12" s="145"/>
-      <c r="X12" s="145"/>
-      <c r="Y12" s="145"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="168"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="168"/>
+      <c r="U12" s="168"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="168"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="168"/>
       <c r="Z12" s="21" t="s">
         <v>18</v>
       </c>
@@ -3839,32 +3804,32 @@
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="140" t="s">
+      <c r="D26" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="138" t="s">
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="178" t="s">
         <v>215</v>
       </c>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="138"/>
-      <c r="Q26" s="138"/>
-      <c r="R26" s="138"/>
-      <c r="S26" s="138"/>
-      <c r="T26" s="138"/>
-      <c r="U26" s="138"/>
-      <c r="V26" s="138"/>
-      <c r="W26" s="138"/>
-      <c r="X26" s="138"/>
-      <c r="Y26" s="138"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="178"/>
+      <c r="M26" s="178"/>
+      <c r="N26" s="178"/>
+      <c r="O26" s="178"/>
+      <c r="P26" s="178"/>
+      <c r="Q26" s="178"/>
+      <c r="R26" s="178"/>
+      <c r="S26" s="178"/>
+      <c r="T26" s="178"/>
+      <c r="U26" s="178"/>
+      <c r="V26" s="178"/>
+      <c r="W26" s="178"/>
+      <c r="X26" s="178"/>
+      <c r="Y26" s="178"/>
       <c r="Z26" s="21"/>
       <c r="AA26" s="21"/>
     </row>
@@ -3872,30 +3837,30 @@
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="121" t="s">
+      <c r="D27" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="138"/>
-      <c r="P27" s="138"/>
-      <c r="Q27" s="138"/>
-      <c r="R27" s="138"/>
-      <c r="S27" s="138"/>
-      <c r="T27" s="138"/>
-      <c r="U27" s="138"/>
-      <c r="V27" s="138"/>
-      <c r="W27" s="138"/>
-      <c r="X27" s="138"/>
-      <c r="Y27" s="138"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="178"/>
+      <c r="M27" s="178"/>
+      <c r="N27" s="178"/>
+      <c r="O27" s="178"/>
+      <c r="P27" s="178"/>
+      <c r="Q27" s="178"/>
+      <c r="R27" s="178"/>
+      <c r="S27" s="178"/>
+      <c r="T27" s="178"/>
+      <c r="U27" s="178"/>
+      <c r="V27" s="178"/>
+      <c r="W27" s="178"/>
+      <c r="X27" s="178"/>
+      <c r="Y27" s="178"/>
       <c r="Z27" s="21"/>
       <c r="AA27" s="21"/>
     </row>
@@ -3905,30 +3870,30 @@
       </c>
       <c r="B28" s="60"/>
       <c r="C28" s="60"/>
-      <c r="D28" s="121" t="s">
+      <c r="D28" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="138"/>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="138"/>
-      <c r="R28" s="138"/>
-      <c r="S28" s="138"/>
-      <c r="T28" s="138"/>
-      <c r="U28" s="138"/>
-      <c r="V28" s="138"/>
-      <c r="W28" s="138"/>
-      <c r="X28" s="138"/>
-      <c r="Y28" s="138"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="178"/>
+      <c r="K28" s="178"/>
+      <c r="L28" s="178"/>
+      <c r="M28" s="178"/>
+      <c r="N28" s="178"/>
+      <c r="O28" s="178"/>
+      <c r="P28" s="178"/>
+      <c r="Q28" s="178"/>
+      <c r="R28" s="178"/>
+      <c r="S28" s="178"/>
+      <c r="T28" s="178"/>
+      <c r="U28" s="178"/>
+      <c r="V28" s="178"/>
+      <c r="W28" s="178"/>
+      <c r="X28" s="178"/>
+      <c r="Y28" s="178"/>
       <c r="Z28" s="21"/>
       <c r="AA28" s="21"/>
     </row>
@@ -3978,23 +3943,23 @@
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="146"/>
-      <c r="V30" s="146"/>
-      <c r="W30" s="146"/>
-      <c r="X30" s="146"/>
-      <c r="Y30" s="146"/>
+      <c r="U30" s="169"/>
+      <c r="V30" s="169"/>
+      <c r="W30" s="169"/>
+      <c r="X30" s="169"/>
+      <c r="Y30" s="169"/>
       <c r="Z30" s="21"/>
       <c r="AA30" s="21"/>
     </row>
     <row r="31" spans="1:28" ht="15" customHeight="1">
       <c r="A31" s="77"/>
       <c r="B31" s="77"/>
-      <c r="D31" s="140" t="s">
+      <c r="D31" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
       <c r="H31" s="85" t="s">
         <v>55</v>
       </c>
@@ -4012,13 +3977,13 @@
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
-      <c r="U31" s="168" t="s">
+      <c r="U31" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="V31" s="168"/>
-      <c r="W31" s="168"/>
-      <c r="X31" s="168"/>
-      <c r="Y31" s="168"/>
+      <c r="V31" s="149"/>
+      <c r="W31" s="149"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="149"/>
       <c r="Z31" s="21"/>
       <c r="AA31" s="21"/>
     </row>
@@ -4053,33 +4018,33 @@
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1">
-      <c r="A33" s="144" t="s">
+      <c r="A33" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="144"/>
-      <c r="M33" s="144"/>
-      <c r="N33" s="144"/>
-      <c r="O33" s="144"/>
-      <c r="P33" s="144"/>
-      <c r="Q33" s="144"/>
-      <c r="R33" s="144"/>
-      <c r="S33" s="144"/>
-      <c r="T33" s="144"/>
-      <c r="U33" s="144"/>
-      <c r="V33" s="144"/>
-      <c r="W33" s="144"/>
-      <c r="X33" s="144"/>
-      <c r="Y33" s="144"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="167"/>
+      <c r="L33" s="167"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="167"/>
+      <c r="O33" s="167"/>
+      <c r="P33" s="167"/>
+      <c r="Q33" s="167"/>
+      <c r="R33" s="167"/>
+      <c r="S33" s="167"/>
+      <c r="T33" s="167"/>
+      <c r="U33" s="167"/>
+      <c r="V33" s="167"/>
+      <c r="W33" s="167"/>
+      <c r="X33" s="167"/>
+      <c r="Y33" s="167"/>
       <c r="Z33" s="21"/>
       <c r="AA33" s="21"/>
     </row>
@@ -4100,23 +4065,23 @@
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
-      <c r="M34" s="147" t="s">
+      <c r="M34" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="N34" s="147"/>
-      <c r="O34" s="147"/>
-      <c r="P34" s="147"/>
-      <c r="Q34" s="147"/>
-      <c r="R34" s="147"/>
+      <c r="N34" s="170"/>
+      <c r="O34" s="170"/>
+      <c r="P34" s="170"/>
+      <c r="Q34" s="170"/>
+      <c r="R34" s="170"/>
       <c r="S34" s="25"/>
-      <c r="T34" s="148" t="s">
+      <c r="T34" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="U34" s="148"/>
-      <c r="V34" s="148"/>
-      <c r="W34" s="148"/>
-      <c r="X34" s="148"/>
-      <c r="Y34" s="148"/>
+      <c r="U34" s="171"/>
+      <c r="V34" s="171"/>
+      <c r="W34" s="171"/>
+      <c r="X34" s="171"/>
+      <c r="Y34" s="171"/>
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
     </row>
@@ -4148,16 +4113,16 @@
         <v>Y</v>
       </c>
       <c r="Q35" s="21"/>
-      <c r="R35" s="141" t="s">
+      <c r="R35" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="S35" s="141"/>
-      <c r="T35" s="141"/>
-      <c r="U35" s="141"/>
-      <c r="V35" s="141"/>
-      <c r="W35" s="141"/>
-      <c r="X35" s="141"/>
-      <c r="Y35" s="141"/>
+      <c r="S35" s="180"/>
+      <c r="T35" s="180"/>
+      <c r="U35" s="180"/>
+      <c r="V35" s="180"/>
+      <c r="W35" s="180"/>
+      <c r="X35" s="180"/>
+      <c r="Y35" s="180"/>
       <c r="Z35" s="21"/>
       <c r="AA35" s="21"/>
     </row>
@@ -4182,16 +4147,16 @@
         <v>Y</v>
       </c>
       <c r="Q36" s="21"/>
-      <c r="R36" s="136" t="s">
+      <c r="R36" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="S36" s="136"/>
-      <c r="T36" s="136"/>
-      <c r="U36" s="136"/>
-      <c r="V36" s="136"/>
-      <c r="W36" s="136"/>
-      <c r="X36" s="136"/>
-      <c r="Y36" s="136"/>
+      <c r="S36" s="130"/>
+      <c r="T36" s="130"/>
+      <c r="U36" s="130"/>
+      <c r="V36" s="130"/>
+      <c r="W36" s="130"/>
+      <c r="X36" s="130"/>
+      <c r="Y36" s="130"/>
       <c r="Z36" s="21"/>
       <c r="AA36" s="21"/>
     </row>
@@ -4216,16 +4181,16 @@
         <v>Y</v>
       </c>
       <c r="Q37" s="21"/>
-      <c r="R37" s="136" t="s">
+      <c r="R37" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="S37" s="136"/>
-      <c r="T37" s="136"/>
-      <c r="U37" s="136"/>
-      <c r="V37" s="136"/>
-      <c r="W37" s="136"/>
-      <c r="X37" s="136"/>
-      <c r="Y37" s="136"/>
+      <c r="S37" s="130"/>
+      <c r="T37" s="130"/>
+      <c r="U37" s="130"/>
+      <c r="V37" s="130"/>
+      <c r="W37" s="130"/>
+      <c r="X37" s="130"/>
+      <c r="Y37" s="130"/>
       <c r="Z37" s="21"/>
       <c r="AA37" s="21"/>
     </row>
@@ -4250,16 +4215,16 @@
         <v>Y</v>
       </c>
       <c r="Q38" s="21"/>
-      <c r="R38" s="136" t="s">
+      <c r="R38" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="S38" s="136"/>
-      <c r="T38" s="136"/>
-      <c r="U38" s="136"/>
-      <c r="V38" s="136"/>
-      <c r="W38" s="136"/>
-      <c r="X38" s="136"/>
-      <c r="Y38" s="136"/>
+      <c r="S38" s="130"/>
+      <c r="T38" s="130"/>
+      <c r="U38" s="130"/>
+      <c r="V38" s="130"/>
+      <c r="W38" s="130"/>
+      <c r="X38" s="130"/>
+      <c r="Y38" s="130"/>
       <c r="Z38" s="21"/>
       <c r="AA38" s="21"/>
     </row>
@@ -4278,35 +4243,35 @@
         <v>Y</v>
       </c>
       <c r="Q39" s="21"/>
-      <c r="R39" s="136" t="s">
+      <c r="R39" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="S39" s="136"/>
-      <c r="T39" s="136"/>
-      <c r="U39" s="136"/>
-      <c r="V39" s="136"/>
-      <c r="W39" s="136"/>
-      <c r="X39" s="136"/>
-      <c r="Y39" s="136"/>
+      <c r="S39" s="130"/>
+      <c r="T39" s="130"/>
+      <c r="U39" s="130"/>
+      <c r="V39" s="130"/>
+      <c r="W39" s="130"/>
+      <c r="X39" s="130"/>
+      <c r="Y39" s="130"/>
       <c r="Z39" s="21"/>
       <c r="AA39" s="21"/>
     </row>
     <row r="40" spans="1:27" ht="15" customHeight="1">
-      <c r="A40" s="180" t="s">
+      <c r="A40" s="176" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="180"/>
-      <c r="C40" s="180"/>
+      <c r="B40" s="176"/>
+      <c r="C40" s="176"/>
       <c r="D40" s="181" t="s">
         <v>78</v>
       </c>
       <c r="E40" s="181"/>
       <c r="F40" s="181"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="183" t="s">
+      <c r="G40" s="118"/>
+      <c r="H40" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="184"/>
+      <c r="I40" s="120"/>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
@@ -4320,37 +4285,37 @@
         <v>Y</v>
       </c>
       <c r="Q40" s="57"/>
-      <c r="R40" s="136" t="s">
+      <c r="R40" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="S40" s="136"/>
-      <c r="T40" s="136"/>
-      <c r="U40" s="136"/>
-      <c r="V40" s="136"/>
-      <c r="W40" s="136"/>
-      <c r="X40" s="136"/>
-      <c r="Y40" s="136"/>
+      <c r="S40" s="130"/>
+      <c r="T40" s="130"/>
+      <c r="U40" s="130"/>
+      <c r="V40" s="130"/>
+      <c r="W40" s="130"/>
+      <c r="X40" s="130"/>
+      <c r="Y40" s="130"/>
       <c r="Z40" s="21"/>
       <c r="AA40" s="21"/>
     </row>
     <row r="41" spans="1:27" ht="15" customHeight="1">
-      <c r="A41" s="185"/>
-      <c r="B41" s="185"/>
-      <c r="C41" s="185"/>
-      <c r="D41" s="186" t="s">
+      <c r="A41" s="121"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="187" t="s">
+      <c r="E41" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="188"/>
-      <c r="G41" s="188" t="s">
+      <c r="F41" s="124"/>
+      <c r="G41" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="187" t="s">
+      <c r="H41" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="189"/>
+      <c r="I41" s="125"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
@@ -4364,39 +4329,39 @@
         <v>Y</v>
       </c>
       <c r="Q41" s="21"/>
-      <c r="R41" s="136" t="s">
+      <c r="R41" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="S41" s="136"/>
-      <c r="T41" s="136"/>
-      <c r="U41" s="136"/>
-      <c r="V41" s="136"/>
-      <c r="W41" s="136"/>
-      <c r="X41" s="136"/>
-      <c r="Y41" s="136"/>
+      <c r="S41" s="130"/>
+      <c r="T41" s="130"/>
+      <c r="U41" s="130"/>
+      <c r="V41" s="130"/>
+      <c r="W41" s="130"/>
+      <c r="X41" s="130"/>
+      <c r="Y41" s="130"/>
       <c r="Z41" s="21"/>
       <c r="AA41" s="21"/>
     </row>
     <row r="42" spans="1:27" ht="15" customHeight="1">
-      <c r="A42" s="185"/>
-      <c r="B42" s="185" t="s">
+      <c r="A42" s="121"/>
+      <c r="B42" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="185"/>
-      <c r="D42" s="186" t="s">
+      <c r="C42" s="121"/>
+      <c r="D42" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="190" t="s">
+      <c r="E42" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="188"/>
-      <c r="G42" s="188" t="s">
+      <c r="F42" s="124"/>
+      <c r="G42" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="H42" s="190" t="s">
+      <c r="H42" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="I42" s="189"/>
+      <c r="I42" s="125"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
@@ -4410,29 +4375,29 @@
         <v>Y</v>
       </c>
       <c r="Q42" s="21"/>
-      <c r="R42" s="136" t="s">
+      <c r="R42" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="S42" s="136"/>
-      <c r="T42" s="136"/>
-      <c r="U42" s="136"/>
-      <c r="V42" s="136"/>
-      <c r="W42" s="136"/>
-      <c r="X42" s="136"/>
-      <c r="Y42" s="136"/>
+      <c r="S42" s="130"/>
+      <c r="T42" s="130"/>
+      <c r="U42" s="130"/>
+      <c r="V42" s="130"/>
+      <c r="W42" s="130"/>
+      <c r="X42" s="130"/>
+      <c r="Y42" s="130"/>
       <c r="Z42" s="21"/>
       <c r="AA42" s="21"/>
     </row>
     <row r="43" spans="1:27" ht="15" customHeight="1">
-      <c r="A43" s="188"/>
-      <c r="B43" s="188"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191"/>
-      <c r="H43" s="191"/>
-      <c r="I43" s="189"/>
+      <c r="A43" s="124"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="127"/>
+      <c r="G43" s="127"/>
+      <c r="H43" s="127"/>
+      <c r="I43" s="125"/>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
@@ -4446,33 +4411,33 @@
         <v/>
       </c>
       <c r="Q43" s="21"/>
-      <c r="R43" s="136" t="s">
+      <c r="R43" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="S43" s="136"/>
-      <c r="T43" s="136"/>
-      <c r="U43" s="136"/>
-      <c r="V43" s="136"/>
-      <c r="W43" s="136"/>
-      <c r="X43" s="136"/>
-      <c r="Y43" s="136"/>
+      <c r="S43" s="130"/>
+      <c r="T43" s="130"/>
+      <c r="U43" s="130"/>
+      <c r="V43" s="130"/>
+      <c r="W43" s="130"/>
+      <c r="X43" s="130"/>
+      <c r="Y43" s="130"/>
       <c r="Z43" s="21"/>
       <c r="AA43" s="21"/>
     </row>
     <row r="44" spans="1:27" ht="15" customHeight="1">
-      <c r="A44" s="192" t="s">
+      <c r="A44" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="192"/>
-      <c r="C44" s="188"/>
-      <c r="D44" s="193" t="s">
+      <c r="B44" s="163"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="191"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="191"/>
-      <c r="H44" s="191"/>
-      <c r="I44" s="189"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="125"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
@@ -4486,29 +4451,29 @@
         <v>Y</v>
       </c>
       <c r="Q44" s="21"/>
-      <c r="R44" s="136" t="s">
+      <c r="R44" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="S44" s="136"/>
-      <c r="T44" s="136"/>
-      <c r="U44" s="136"/>
-      <c r="V44" s="136"/>
-      <c r="W44" s="136"/>
-      <c r="X44" s="136"/>
-      <c r="Y44" s="136"/>
+      <c r="S44" s="130"/>
+      <c r="T44" s="130"/>
+      <c r="U44" s="130"/>
+      <c r="V44" s="130"/>
+      <c r="W44" s="130"/>
+      <c r="X44" s="130"/>
+      <c r="Y44" s="130"/>
       <c r="Z44" s="21"/>
       <c r="AA44" s="21"/>
     </row>
     <row r="45" spans="1:27" ht="15" customHeight="1">
-      <c r="A45" s="188"/>
-      <c r="B45" s="188"/>
-      <c r="C45" s="188"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="191"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="191"/>
-      <c r="H45" s="191"/>
-      <c r="I45" s="189"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="125"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
@@ -4522,33 +4487,33 @@
         <v>Y</v>
       </c>
       <c r="Q45" s="21"/>
-      <c r="R45" s="136" t="s">
+      <c r="R45" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="S45" s="136"/>
-      <c r="T45" s="136"/>
-      <c r="U45" s="136"/>
-      <c r="V45" s="136"/>
-      <c r="W45" s="136"/>
-      <c r="X45" s="136"/>
-      <c r="Y45" s="136"/>
+      <c r="S45" s="130"/>
+      <c r="T45" s="130"/>
+      <c r="U45" s="130"/>
+      <c r="V45" s="130"/>
+      <c r="W45" s="130"/>
+      <c r="X45" s="130"/>
+      <c r="Y45" s="130"/>
       <c r="Z45" s="21"/>
       <c r="AA45" s="21"/>
     </row>
     <row r="46" spans="1:27" ht="15" customHeight="1">
-      <c r="A46" s="192" t="s">
+      <c r="A46" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="192"/>
-      <c r="C46" s="188"/>
-      <c r="D46" s="193" t="s">
+      <c r="B46" s="163"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="191"/>
-      <c r="F46" s="191"/>
-      <c r="G46" s="191"/>
-      <c r="H46" s="191"/>
-      <c r="I46" s="189"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="125"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
@@ -4562,24 +4527,24 @@
         <v>Y</v>
       </c>
       <c r="Q46" s="21"/>
-      <c r="R46" s="136" t="s">
+      <c r="R46" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="S46" s="136"/>
-      <c r="T46" s="136"/>
-      <c r="U46" s="136"/>
-      <c r="V46" s="136"/>
-      <c r="W46" s="136"/>
-      <c r="X46" s="136"/>
-      <c r="Y46" s="136"/>
+      <c r="S46" s="130"/>
+      <c r="T46" s="130"/>
+      <c r="U46" s="130"/>
+      <c r="V46" s="130"/>
+      <c r="W46" s="130"/>
+      <c r="X46" s="130"/>
+      <c r="Y46" s="130"/>
       <c r="Z46" s="21"/>
       <c r="AA46" s="21"/>
     </row>
     <row r="47" spans="1:27" ht="15" customHeight="1">
-      <c r="A47" s="161" t="s">
+      <c r="A47" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="161"/>
+      <c r="B47" s="162"/>
       <c r="C47" s="27"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -4600,16 +4565,16 @@
         <v/>
       </c>
       <c r="Q47" s="21"/>
-      <c r="R47" s="136" t="s">
+      <c r="R47" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="S47" s="136"/>
-      <c r="T47" s="136"/>
-      <c r="U47" s="136"/>
-      <c r="V47" s="136"/>
-      <c r="W47" s="136"/>
-      <c r="X47" s="136"/>
-      <c r="Y47" s="136"/>
+      <c r="S47" s="130"/>
+      <c r="T47" s="130"/>
+      <c r="U47" s="130"/>
+      <c r="V47" s="130"/>
+      <c r="W47" s="130"/>
+      <c r="X47" s="130"/>
+      <c r="Y47" s="130"/>
       <c r="Z47" s="21"/>
       <c r="AA47" s="21"/>
     </row>
@@ -4628,16 +4593,16 @@
         <v>Y</v>
       </c>
       <c r="Q48" s="21"/>
-      <c r="R48" s="136" t="s">
+      <c r="R48" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="S48" s="136"/>
-      <c r="T48" s="136"/>
-      <c r="U48" s="136"/>
-      <c r="V48" s="136"/>
-      <c r="W48" s="136"/>
-      <c r="X48" s="136"/>
-      <c r="Y48" s="136"/>
+      <c r="S48" s="130"/>
+      <c r="T48" s="130"/>
+      <c r="U48" s="130"/>
+      <c r="V48" s="130"/>
+      <c r="W48" s="130"/>
+      <c r="X48" s="130"/>
+      <c r="Y48" s="130"/>
       <c r="Z48" s="21"/>
       <c r="AA48" s="21"/>
     </row>
@@ -4650,10 +4615,10 @@
       <c r="D49" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="150" t="s">
+      <c r="E49" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="F49" s="150"/>
+      <c r="F49" s="164"/>
       <c r="H49" s="3" t="s">
         <v>103</v>
       </c>
@@ -4668,16 +4633,16 @@
       <c r="O49" s="53"/>
       <c r="P49" s="24"/>
       <c r="Q49" s="53"/>
-      <c r="R49" s="136" t="s">
+      <c r="R49" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="S49" s="136"/>
-      <c r="T49" s="136"/>
-      <c r="U49" s="136"/>
-      <c r="V49" s="136"/>
-      <c r="W49" s="136"/>
-      <c r="X49" s="136"/>
-      <c r="Y49" s="136"/>
+      <c r="S49" s="130"/>
+      <c r="T49" s="130"/>
+      <c r="U49" s="130"/>
+      <c r="V49" s="130"/>
+      <c r="W49" s="130"/>
+      <c r="X49" s="130"/>
+      <c r="Y49" s="130"/>
       <c r="Z49" s="21"/>
       <c r="AA49" s="21"/>
     </row>
@@ -4686,17 +4651,17 @@
       <c r="D50" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="163" t="s">
+      <c r="E50" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="163"/>
+      <c r="F50" s="136"/>
       <c r="H50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I50" s="179" t="s">
+      <c r="I50" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="J50" s="179"/>
+      <c r="J50" s="144"/>
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="55"/>
@@ -4721,17 +4686,17 @@
       <c r="D51" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="E51" s="163" t="s">
+      <c r="E51" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="163"/>
+      <c r="F51" s="136"/>
       <c r="H51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I51" s="121" t="s">
+      <c r="I51" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="J51" s="121"/>
+      <c r="J51" s="135"/>
       <c r="K51" s="53"/>
       <c r="L51" s="53"/>
       <c r="M51" s="55"/>
@@ -4756,17 +4721,17 @@
       <c r="D52" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="163" t="s">
+      <c r="E52" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="F52" s="163"/>
+      <c r="F52" s="136"/>
       <c r="H52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I52" s="121" t="s">
+      <c r="I52" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="J52" s="121"/>
+      <c r="J52" s="135"/>
       <c r="K52" s="53"/>
       <c r="L52" s="53"/>
       <c r="M52" s="55"/>
@@ -4789,17 +4754,17 @@
       <c r="A53" s="86"/>
       <c r="B53" s="104"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="162" t="s">
+      <c r="E53" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="162"/>
+      <c r="F53" s="140"/>
       <c r="H53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I53" s="121" t="s">
+      <c r="I53" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="J53" s="121"/>
+      <c r="J53" s="135"/>
       <c r="K53" s="53"/>
       <c r="L53" s="53"/>
       <c r="M53" s="97"/>
@@ -4825,10 +4790,10 @@
       <c r="H54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I54" s="121" t="s">
+      <c r="I54" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="J54" s="121"/>
+      <c r="J54" s="135"/>
       <c r="K54" s="53"/>
       <c r="L54" s="53"/>
       <c r="M54" s="97"/>
@@ -4906,17 +4871,17 @@
       <c r="L57" s="21"/>
       <c r="M57" s="21"/>
       <c r="N57" s="21"/>
-      <c r="O57" s="176"/>
-      <c r="P57" s="176"/>
-      <c r="Q57" s="176"/>
-      <c r="R57" s="176"/>
-      <c r="S57" s="176"/>
-      <c r="T57" s="176"/>
-      <c r="U57" s="176"/>
-      <c r="V57" s="176"/>
-      <c r="W57" s="176"/>
-      <c r="X57" s="176"/>
-      <c r="Y57" s="176"/>
+      <c r="O57" s="137"/>
+      <c r="P57" s="137"/>
+      <c r="Q57" s="137"/>
+      <c r="R57" s="137"/>
+      <c r="S57" s="137"/>
+      <c r="T57" s="137"/>
+      <c r="U57" s="137"/>
+      <c r="V57" s="137"/>
+      <c r="W57" s="137"/>
+      <c r="X57" s="137"/>
+      <c r="Y57" s="137"/>
       <c r="Z57" s="21"/>
       <c r="AA57" s="21"/>
     </row>
@@ -4927,10 +4892,10 @@
       <c r="B58" s="32"/>
       <c r="C58" s="30"/>
       <c r="D58" s="30"/>
-      <c r="E58" s="159" t="s">
+      <c r="E58" s="161" t="s">
         <v>115</v>
       </c>
-      <c r="F58" s="159"/>
+      <c r="F58" s="161"/>
       <c r="G58" s="20"/>
       <c r="H58" s="31" t="s">
         <v>116</v>
@@ -4943,21 +4908,21 @@
       <c r="L58" s="91"/>
       <c r="M58" s="91"/>
       <c r="N58" s="21"/>
-      <c r="O58" s="156" t="s">
+      <c r="O58" s="158" t="s">
         <v>118</v>
       </c>
-      <c r="P58" s="156"/>
-      <c r="Q58" s="156"/>
-      <c r="R58" s="156"/>
-      <c r="S58" s="156"/>
-      <c r="T58" s="156"/>
-      <c r="U58" s="156"/>
-      <c r="V58" s="155" t="s">
+      <c r="P58" s="158"/>
+      <c r="Q58" s="158"/>
+      <c r="R58" s="158"/>
+      <c r="S58" s="158"/>
+      <c r="T58" s="158"/>
+      <c r="U58" s="158"/>
+      <c r="V58" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="W58" s="155"/>
-      <c r="X58" s="155"/>
-      <c r="Y58" s="155"/>
+      <c r="W58" s="157"/>
+      <c r="X58" s="157"/>
+      <c r="Y58" s="157"/>
       <c r="Z58" s="21"/>
       <c r="AA58" s="21"/>
     </row>
@@ -4983,27 +4948,27 @@
       <c r="AA59" s="21"/>
     </row>
     <row r="60" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A60" s="134" t="s">
+      <c r="A60" s="156" t="s">
         <v>119</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="D60" s="154" t="s">
+      <c r="D60" s="160" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="123" t="s">
+      <c r="E60" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="F60" s="123"/>
+      <c r="F60" s="134"/>
       <c r="H60" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="I60" s="160" t="s">
+      <c r="I60" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="J60" s="160"/>
-      <c r="K60" s="160"/>
-      <c r="L60" s="160"/>
-      <c r="M60" s="160"/>
+      <c r="J60" s="150"/>
+      <c r="K60" s="150"/>
+      <c r="L60" s="150"/>
+      <c r="M60" s="150"/>
       <c r="N60" s="21"/>
       <c r="O60" s="40" t="s">
         <v>122</v>
@@ -5014,31 +4979,31 @@
       <c r="S60" s="21"/>
       <c r="T60" s="21"/>
       <c r="U60" s="21"/>
-      <c r="V60" s="160" t="s">
+      <c r="V60" s="150" t="s">
         <v>124</v>
       </c>
-      <c r="W60" s="160"/>
-      <c r="X60" s="160"/>
-      <c r="Y60" s="160"/>
+      <c r="W60" s="150"/>
+      <c r="X60" s="150"/>
+      <c r="Y60" s="150"/>
       <c r="Z60" s="21"/>
       <c r="AA60" s="21"/>
     </row>
     <row r="61" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A61" s="134"/>
+      <c r="A61" s="156"/>
       <c r="B61" s="2"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="123"/>
+      <c r="D61" s="133"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
       <c r="H61" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="I61" s="136" t="s">
+      <c r="I61" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="J61" s="136"/>
-      <c r="K61" s="136"/>
-      <c r="L61" s="136"/>
-      <c r="M61" s="136"/>
+      <c r="J61" s="130"/>
+      <c r="K61" s="130"/>
+      <c r="L61" s="130"/>
+      <c r="M61" s="130"/>
       <c r="N61" s="21"/>
       <c r="O61" s="40" t="s">
         <v>127</v>
@@ -5049,37 +5014,37 @@
       <c r="S61" s="21"/>
       <c r="T61" s="21"/>
       <c r="U61" s="21"/>
-      <c r="V61" s="136" t="s">
+      <c r="V61" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="W61" s="136"/>
-      <c r="X61" s="136"/>
-      <c r="Y61" s="136"/>
+      <c r="W61" s="130"/>
+      <c r="X61" s="130"/>
+      <c r="Y61" s="130"/>
       <c r="Z61" s="21"/>
       <c r="AA61" s="21"/>
     </row>
     <row r="62" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A62" s="134" t="s">
+      <c r="A62" s="156" t="s">
         <v>129</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="D62" s="157" t="s">
+      <c r="D62" s="159" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="123" t="s">
+      <c r="E62" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="F62" s="123"/>
+      <c r="F62" s="134"/>
       <c r="H62" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="I62" s="135" t="s">
+      <c r="I62" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="J62" s="135"/>
-      <c r="K62" s="135"/>
-      <c r="L62" s="135"/>
-      <c r="M62" s="135"/>
+      <c r="J62" s="143"/>
+      <c r="K62" s="143"/>
+      <c r="L62" s="143"/>
+      <c r="M62" s="143"/>
       <c r="N62" s="21"/>
       <c r="O62" s="40" t="s">
         <v>134</v>
@@ -5090,32 +5055,32 @@
       <c r="S62" s="21"/>
       <c r="T62" s="21"/>
       <c r="U62" s="21"/>
-      <c r="V62" s="136" t="s">
+      <c r="V62" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="W62" s="136"/>
-      <c r="X62" s="136"/>
-      <c r="Y62" s="136"/>
+      <c r="W62" s="130"/>
+      <c r="X62" s="130"/>
+      <c r="Y62" s="130"/>
       <c r="Z62" s="21"/>
       <c r="AA62" s="21"/>
       <c r="AC62" s="16"/>
     </row>
     <row r="63" spans="1:29" ht="15" customHeight="1">
-      <c r="A63" s="134"/>
+      <c r="A63" s="156"/>
       <c r="B63" s="2"/>
-      <c r="D63" s="158"/>
-      <c r="E63" s="123"/>
-      <c r="F63" s="123"/>
+      <c r="D63" s="133"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
       <c r="H63" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="I63" s="135" t="s">
+      <c r="I63" s="143" t="s">
         <v>136</v>
       </c>
-      <c r="J63" s="135"/>
-      <c r="K63" s="135"/>
-      <c r="L63" s="135"/>
-      <c r="M63" s="135"/>
+      <c r="J63" s="143"/>
+      <c r="K63" s="143"/>
+      <c r="L63" s="143"/>
+      <c r="M63" s="143"/>
       <c r="N63" s="21"/>
       <c r="O63" s="40" t="s">
         <v>137</v>
@@ -5126,37 +5091,37 @@
       <c r="S63" s="21"/>
       <c r="T63" s="21"/>
       <c r="U63" s="21"/>
-      <c r="V63" s="136" t="s">
+      <c r="V63" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="W63" s="136"/>
-      <c r="X63" s="136"/>
-      <c r="Y63" s="136"/>
+      <c r="W63" s="130"/>
+      <c r="X63" s="130"/>
+      <c r="Y63" s="130"/>
       <c r="Z63" s="21"/>
       <c r="AA63" s="21"/>
     </row>
     <row r="64" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A64" s="134" t="s">
+      <c r="A64" s="156" t="s">
         <v>138</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="D64" s="175" t="s">
+      <c r="D64" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="E64" s="123" t="s">
+      <c r="E64" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="F64" s="123"/>
+      <c r="F64" s="134"/>
       <c r="H64" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="I64" s="136" t="s">
+      <c r="I64" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="J64" s="136"/>
-      <c r="K64" s="136"/>
-      <c r="L64" s="136"/>
-      <c r="M64" s="136"/>
+      <c r="J64" s="130"/>
+      <c r="K64" s="130"/>
+      <c r="L64" s="130"/>
+      <c r="M64" s="130"/>
       <c r="N64" s="21"/>
       <c r="O64" s="43" t="s">
         <v>143</v>
@@ -5167,31 +5132,31 @@
       <c r="S64" s="28"/>
       <c r="T64" s="28"/>
       <c r="U64" s="28"/>
-      <c r="V64" s="170" t="s">
+      <c r="V64" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="W64" s="170"/>
-      <c r="X64" s="170"/>
-      <c r="Y64" s="170"/>
+      <c r="W64" s="152"/>
+      <c r="X64" s="152"/>
+      <c r="Y64" s="152"/>
       <c r="Z64" s="21"/>
       <c r="AA64" s="21"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A65" s="134"/>
+      <c r="A65" s="156"/>
       <c r="B65" s="2"/>
-      <c r="D65" s="158"/>
-      <c r="E65" s="123"/>
-      <c r="F65" s="123"/>
+      <c r="D65" s="133"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="134"/>
       <c r="H65" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="I65" s="136" t="s">
+      <c r="I65" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="J65" s="136"/>
-      <c r="K65" s="136"/>
-      <c r="L65" s="136"/>
-      <c r="M65" s="136"/>
+      <c r="J65" s="130"/>
+      <c r="K65" s="130"/>
+      <c r="L65" s="130"/>
+      <c r="M65" s="130"/>
       <c r="N65" s="21"/>
       <c r="O65" s="39"/>
       <c r="P65" s="21"/>
@@ -5217,20 +5182,20 @@
       <c r="D66" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="E66" s="123" t="s">
+      <c r="E66" s="134" t="s">
         <v>148</v>
       </c>
-      <c r="F66" s="123"/>
+      <c r="F66" s="134"/>
       <c r="H66" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="I66" s="136" t="s">
+      <c r="I66" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="J66" s="136"/>
-      <c r="K66" s="136"/>
-      <c r="L66" s="136"/>
-      <c r="M66" s="136"/>
+      <c r="J66" s="130"/>
+      <c r="K66" s="130"/>
+      <c r="L66" s="130"/>
+      <c r="M66" s="130"/>
       <c r="N66" s="21"/>
       <c r="O66" s="21"/>
       <c r="P66" s="21"/>
@@ -5249,41 +5214,41 @@
       <c r="AA66" s="21"/>
     </row>
     <row r="67" spans="1:27" ht="14.25" customHeight="1">
-      <c r="A67" s="134" t="s">
+      <c r="A67" s="156" t="s">
         <v>150</v>
       </c>
-      <c r="B67" s="134"/>
+      <c r="B67" s="156"/>
       <c r="D67" s="84"/>
-      <c r="E67" s="123"/>
-      <c r="F67" s="123"/>
+      <c r="E67" s="134"/>
+      <c r="F67" s="134"/>
       <c r="H67" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="I67" s="135" t="s">
+      <c r="I67" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="J67" s="135"/>
-      <c r="K67" s="135"/>
-      <c r="L67" s="135"/>
-      <c r="M67" s="135"/>
+      <c r="J67" s="143"/>
+      <c r="K67" s="143"/>
+      <c r="L67" s="143"/>
+      <c r="M67" s="143"/>
       <c r="N67" s="21"/>
-      <c r="O67" s="119" t="s">
+      <c r="O67" s="153" t="s">
         <v>153</v>
       </c>
-      <c r="P67" s="119"/>
-      <c r="Q67" s="119"/>
-      <c r="R67" s="119"/>
-      <c r="S67" s="140" t="s">
+      <c r="P67" s="153"/>
+      <c r="Q67" s="153"/>
+      <c r="R67" s="153"/>
+      <c r="S67" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="T67" s="140"/>
-      <c r="U67" s="172" t="s">
+      <c r="T67" s="141"/>
+      <c r="U67" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="V67" s="172"/>
-      <c r="W67" s="172"/>
-      <c r="X67" s="172"/>
-      <c r="Y67" s="172"/>
+      <c r="V67" s="155"/>
+      <c r="W67" s="155"/>
+      <c r="X67" s="155"/>
+      <c r="Y67" s="155"/>
       <c r="Z67" s="21"/>
       <c r="AA67" s="21"/>
     </row>
@@ -5295,31 +5260,31 @@
       <c r="H68" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I68" s="135" t="s">
+      <c r="I68" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="J68" s="135"/>
-      <c r="K68" s="135"/>
-      <c r="L68" s="135"/>
-      <c r="M68" s="135"/>
+      <c r="J68" s="143"/>
+      <c r="K68" s="143"/>
+      <c r="L68" s="143"/>
+      <c r="M68" s="143"/>
       <c r="N68" s="21"/>
-      <c r="O68" s="119" t="s">
+      <c r="O68" s="153" t="s">
         <v>155</v>
       </c>
-      <c r="P68" s="119"/>
-      <c r="Q68" s="119"/>
-      <c r="R68" s="119"/>
-      <c r="S68" s="121" t="s">
+      <c r="P68" s="153"/>
+      <c r="Q68" s="153"/>
+      <c r="R68" s="153"/>
+      <c r="S68" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="T68" s="121"/>
-      <c r="U68" s="169" t="s">
+      <c r="T68" s="135"/>
+      <c r="U68" s="151" t="s">
         <v>156</v>
       </c>
-      <c r="V68" s="169"/>
-      <c r="W68" s="169"/>
-      <c r="X68" s="169"/>
-      <c r="Y68" s="169"/>
+      <c r="V68" s="151"/>
+      <c r="W68" s="151"/>
+      <c r="X68" s="151"/>
+      <c r="Y68" s="151"/>
       <c r="Z68" s="21"/>
       <c r="AA68" s="21"/>
     </row>
@@ -5330,38 +5295,38 @@
       <c r="D69" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="E69" s="123" t="s">
+      <c r="E69" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="F69" s="123"/>
+      <c r="F69" s="134"/>
       <c r="H69" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="I69" s="136" t="s">
+      <c r="I69" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="J69" s="136"/>
-      <c r="K69" s="136"/>
-      <c r="L69" s="136"/>
-      <c r="M69" s="136"/>
+      <c r="J69" s="130"/>
+      <c r="K69" s="130"/>
+      <c r="L69" s="130"/>
+      <c r="M69" s="130"/>
       <c r="N69" s="21"/>
-      <c r="O69" s="119" t="s">
+      <c r="O69" s="153" t="s">
         <v>162</v>
       </c>
-      <c r="P69" s="119"/>
-      <c r="Q69" s="119"/>
-      <c r="R69" s="119"/>
-      <c r="S69" s="140" t="s">
+      <c r="P69" s="153"/>
+      <c r="Q69" s="153"/>
+      <c r="R69" s="153"/>
+      <c r="S69" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="T69" s="140"/>
-      <c r="U69" s="169" t="s">
+      <c r="T69" s="141"/>
+      <c r="U69" s="151" t="s">
         <v>163</v>
       </c>
-      <c r="V69" s="169"/>
-      <c r="W69" s="169"/>
-      <c r="X69" s="169"/>
-      <c r="Y69" s="169"/>
+      <c r="V69" s="151"/>
+      <c r="W69" s="151"/>
+      <c r="X69" s="151"/>
+      <c r="Y69" s="151"/>
       <c r="Z69" s="21"/>
       <c r="AA69" s="21"/>
     </row>
@@ -5372,32 +5337,32 @@
       <c r="D70" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="E70" s="123" t="s">
+      <c r="E70" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="F70" s="123"/>
+      <c r="F70" s="134"/>
       <c r="G70" s="22"/>
       <c r="H70" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="I70" s="121" t="s">
+      <c r="I70" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="J70" s="121"/>
-      <c r="K70" s="121"/>
-      <c r="L70" s="121"/>
-      <c r="M70" s="121"/>
+      <c r="J70" s="135"/>
+      <c r="K70" s="135"/>
+      <c r="L70" s="135"/>
+      <c r="M70" s="135"/>
       <c r="N70" s="6"/>
-      <c r="O70" s="119" t="s">
+      <c r="O70" s="153" t="s">
         <v>168</v>
       </c>
-      <c r="P70" s="119"/>
-      <c r="Q70" s="119"/>
-      <c r="R70" s="119"/>
-      <c r="S70" s="178" t="s">
+      <c r="P70" s="153"/>
+      <c r="Q70" s="153"/>
+      <c r="R70" s="153"/>
+      <c r="S70" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="T70" s="178"/>
+      <c r="T70" s="142"/>
       <c r="V70" s="6"/>
     </row>
     <row r="71" spans="1:27" ht="13.5" customHeight="1">
@@ -5407,21 +5372,21 @@
       <c r="D71" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="E71" s="123" t="s">
+      <c r="E71" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="F71" s="123"/>
+      <c r="F71" s="134"/>
       <c r="G71" s="22"/>
       <c r="H71" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="I71" s="121" t="s">
+      <c r="I71" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="J71" s="121"/>
-      <c r="K71" s="121"/>
-      <c r="L71" s="121"/>
-      <c r="M71" s="121"/>
+      <c r="J71" s="135"/>
+      <c r="K71" s="135"/>
+      <c r="L71" s="135"/>
+      <c r="M71" s="135"/>
       <c r="N71" s="6"/>
       <c r="S71" s="85"/>
       <c r="T71" s="85"/>
@@ -5435,38 +5400,38 @@
       <c r="D72" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="E72" s="131" t="s">
+      <c r="E72" s="191" t="s">
         <v>174</v>
       </c>
-      <c r="F72" s="131"/>
+      <c r="F72" s="191"/>
       <c r="G72" s="22"/>
       <c r="H72" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="I72" s="121" t="s">
+      <c r="I72" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="J72" s="121"/>
-      <c r="K72" s="121"/>
-      <c r="L72" s="121"/>
-      <c r="M72" s="121"/>
-      <c r="O72" s="119" t="s">
+      <c r="J72" s="135"/>
+      <c r="K72" s="135"/>
+      <c r="L72" s="135"/>
+      <c r="M72" s="135"/>
+      <c r="O72" s="153" t="s">
         <v>176</v>
       </c>
-      <c r="P72" s="119"/>
-      <c r="Q72" s="119"/>
-      <c r="R72" s="119"/>
-      <c r="S72" s="166" t="s">
+      <c r="P72" s="153"/>
+      <c r="Q72" s="153"/>
+      <c r="R72" s="153"/>
+      <c r="S72" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="T72" s="166"/>
-      <c r="U72" s="166"/>
-      <c r="V72" s="171" t="s">
+      <c r="T72" s="147"/>
+      <c r="U72" s="147"/>
+      <c r="V72" s="154" t="s">
         <v>177</v>
       </c>
-      <c r="W72" s="171"/>
-      <c r="X72" s="171"/>
-      <c r="Y72" s="171"/>
+      <c r="W72" s="154"/>
+      <c r="X72" s="154"/>
+      <c r="Y72" s="154"/>
     </row>
     <row r="73" spans="1:27" ht="15" customHeight="1">
       <c r="A73" s="38" t="s">
@@ -5475,36 +5440,36 @@
       <c r="D73" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="E73" s="123" t="s">
+      <c r="E73" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="F73" s="123"/>
+      <c r="F73" s="134"/>
       <c r="G73" s="22"/>
       <c r="H73" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="I73" s="121" t="s">
+      <c r="I73" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="J73" s="121"/>
-      <c r="K73" s="121"/>
-      <c r="L73" s="121"/>
-      <c r="M73" s="121"/>
-      <c r="O73" s="119" t="s">
+      <c r="J73" s="135"/>
+      <c r="K73" s="135"/>
+      <c r="L73" s="135"/>
+      <c r="M73" s="135"/>
+      <c r="O73" s="153" t="s">
         <v>181</v>
       </c>
-      <c r="P73" s="119"/>
-      <c r="Q73" s="119"/>
-      <c r="R73" s="119"/>
-      <c r="S73" s="167"/>
-      <c r="T73" s="167"/>
-      <c r="U73" s="167"/>
-      <c r="V73" s="165" t="s">
+      <c r="P73" s="153"/>
+      <c r="Q73" s="153"/>
+      <c r="R73" s="153"/>
+      <c r="S73" s="148"/>
+      <c r="T73" s="148"/>
+      <c r="U73" s="148"/>
+      <c r="V73" s="146" t="s">
         <v>182</v>
       </c>
-      <c r="W73" s="165"/>
-      <c r="X73" s="165"/>
-      <c r="Y73" s="165"/>
+      <c r="W73" s="146"/>
+      <c r="X73" s="146"/>
+      <c r="Y73" s="146"/>
     </row>
     <row r="74" spans="1:27" ht="13.15" customHeight="1">
       <c r="A74" s="41" t="s">
@@ -5515,21 +5480,21 @@
       <c r="D74" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E74" s="123" t="s">
+      <c r="E74" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="F74" s="123"/>
+      <c r="F74" s="134"/>
       <c r="G74" s="22"/>
       <c r="H74" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="I74" s="121" t="s">
+      <c r="I74" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="J74" s="121"/>
-      <c r="K74" s="121"/>
-      <c r="L74" s="121"/>
-      <c r="M74" s="121"/>
+      <c r="J74" s="135"/>
+      <c r="K74" s="135"/>
+      <c r="L74" s="135"/>
+      <c r="M74" s="135"/>
       <c r="O74" s="101"/>
       <c r="P74" s="101"/>
       <c r="Q74" s="101"/>
@@ -5537,12 +5502,12 @@
       <c r="S74" s="101"/>
       <c r="T74" s="101"/>
       <c r="U74" s="101"/>
-      <c r="V74" s="165" t="s">
+      <c r="V74" s="146" t="s">
         <v>187</v>
       </c>
-      <c r="W74" s="165"/>
-      <c r="X74" s="165"/>
-      <c r="Y74" s="165"/>
+      <c r="W74" s="146"/>
+      <c r="X74" s="146"/>
+      <c r="Y74" s="146"/>
     </row>
     <row r="75" spans="1:27" ht="4.5" customHeight="1">
       <c r="A75" s="38"/>
@@ -5570,23 +5535,23 @@
       <c r="Y75" s="13"/>
     </row>
     <row r="76" spans="1:27" ht="15" customHeight="1">
-      <c r="A76" s="128" t="s">
+      <c r="A76" s="189" t="s">
         <v>188</v>
       </c>
-      <c r="B76" s="128"/>
-      <c r="C76" s="128"/>
-      <c r="D76" s="128"/>
+      <c r="B76" s="189"/>
+      <c r="C76" s="189"/>
+      <c r="D76" s="189"/>
       <c r="E76" s="105"/>
-      <c r="F76" s="129" t="s">
+      <c r="F76" s="190" t="s">
         <v>189</v>
       </c>
-      <c r="G76" s="129"/>
-      <c r="H76" s="129"/>
-      <c r="I76" s="129"/>
-      <c r="J76" s="129"/>
-      <c r="K76" s="129"/>
-      <c r="L76" s="129"/>
-      <c r="M76" s="129"/>
+      <c r="G76" s="190"/>
+      <c r="H76" s="190"/>
+      <c r="I76" s="190"/>
+      <c r="J76" s="190"/>
+      <c r="K76" s="190"/>
+      <c r="L76" s="190"/>
+      <c r="M76" s="190"/>
       <c r="N76" s="93"/>
       <c r="O76" s="93"/>
       <c r="P76" s="93"/>
@@ -5626,45 +5591,45 @@
       <c r="A78" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="B78" s="132" t="s">
+      <c r="B78" s="192" t="s">
         <v>191</v>
       </c>
-      <c r="C78" s="132"/>
-      <c r="D78" s="132"/>
-      <c r="E78" s="132"/>
+      <c r="C78" s="192"/>
+      <c r="D78" s="192"/>
+      <c r="E78" s="192"/>
       <c r="F78" s="85"/>
       <c r="G78" s="85"/>
       <c r="H78" s="36"/>
       <c r="I78" s="2"/>
-      <c r="J78" s="162" t="s">
+      <c r="J78" s="140" t="s">
         <v>192</v>
       </c>
-      <c r="K78" s="162" t="s">
+      <c r="K78" s="140" t="s">
         <v>193</v>
       </c>
-      <c r="L78" s="162"/>
-      <c r="M78" s="177" t="s">
+      <c r="L78" s="140"/>
+      <c r="M78" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="N78" s="177"/>
-      <c r="O78" s="177"/>
-      <c r="P78" s="177"/>
-      <c r="Q78" s="177"/>
-      <c r="R78" s="177"/>
-      <c r="S78" s="177"/>
-      <c r="T78" s="177"/>
-      <c r="U78" s="177"/>
-      <c r="V78" s="177"/>
-      <c r="W78" s="177"/>
-      <c r="X78" s="177"/>
-      <c r="Y78" s="177"/>
+      <c r="N78" s="138"/>
+      <c r="O78" s="138"/>
+      <c r="P78" s="138"/>
+      <c r="Q78" s="138"/>
+      <c r="R78" s="138"/>
+      <c r="S78" s="138"/>
+      <c r="T78" s="138"/>
+      <c r="U78" s="138"/>
+      <c r="V78" s="138"/>
+      <c r="W78" s="138"/>
+      <c r="X78" s="138"/>
+      <c r="Y78" s="138"/>
     </row>
     <row r="79" spans="1:27" ht="15" customHeight="1">
       <c r="A79" s="38"/>
-      <c r="B79" s="132"/>
-      <c r="C79" s="132"/>
-      <c r="D79" s="132"/>
-      <c r="E79" s="132"/>
+      <c r="B79" s="192"/>
+      <c r="C79" s="192"/>
+      <c r="D79" s="192"/>
+      <c r="E79" s="192"/>
       <c r="F79" s="85"/>
       <c r="G79" s="85"/>
       <c r="H79" s="36"/>
@@ -5672,21 +5637,21 @@
       <c r="J79" s="6"/>
       <c r="K79" s="88"/>
       <c r="L79" s="88"/>
-      <c r="M79" s="177" t="s">
+      <c r="M79" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="N79" s="177"/>
-      <c r="O79" s="177"/>
-      <c r="P79" s="177"/>
-      <c r="Q79" s="177"/>
-      <c r="R79" s="177"/>
-      <c r="S79" s="177"/>
-      <c r="T79" s="177"/>
-      <c r="U79" s="177"/>
-      <c r="V79" s="177"/>
-      <c r="W79" s="177"/>
-      <c r="X79" s="177"/>
-      <c r="Y79" s="177"/>
+      <c r="N79" s="138"/>
+      <c r="O79" s="138"/>
+      <c r="P79" s="138"/>
+      <c r="Q79" s="138"/>
+      <c r="R79" s="138"/>
+      <c r="S79" s="138"/>
+      <c r="T79" s="138"/>
+      <c r="U79" s="138"/>
+      <c r="V79" s="138"/>
+      <c r="W79" s="138"/>
+      <c r="X79" s="138"/>
+      <c r="Y79" s="138"/>
     </row>
     <row r="80" spans="1:27" ht="15" customHeight="1">
       <c r="A80" s="38" t="s">
@@ -5695,16 +5660,16 @@
       <c r="D80" s="26"/>
       <c r="E80" s="34"/>
       <c r="F80" s="34"/>
-      <c r="G80" s="126" t="s">
+      <c r="G80" s="187" t="s">
         <v>195</v>
       </c>
-      <c r="H80" s="126"/>
+      <c r="H80" s="187"/>
       <c r="I80" s="86"/>
-      <c r="J80" s="162" t="s">
+      <c r="J80" s="140" t="s">
         <v>196</v>
       </c>
-      <c r="K80" s="162"/>
-      <c r="L80" s="162"/>
+      <c r="K80" s="140"/>
+      <c r="L80" s="140"/>
       <c r="M80" s="87" t="s">
         <v>49</v>
       </c>
@@ -5723,36 +5688,36 @@
     </row>
     <row r="81" spans="1:46" ht="15" customHeight="1">
       <c r="A81" s="38"/>
-      <c r="B81" s="130" t="s">
+      <c r="B81" s="139" t="s">
         <v>197</v>
       </c>
-      <c r="C81" s="130"/>
-      <c r="D81" s="130"/>
-      <c r="E81" s="130"/>
-      <c r="F81" s="130"/>
-      <c r="G81" s="127" t="s">
+      <c r="C81" s="139"/>
+      <c r="D81" s="139"/>
+      <c r="E81" s="139"/>
+      <c r="F81" s="139"/>
+      <c r="G81" s="188" t="s">
         <v>198</v>
       </c>
-      <c r="H81" s="127"/>
+      <c r="H81" s="188"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="130" t="s">
+      <c r="M81" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="N81" s="130"/>
-      <c r="O81" s="130"/>
-      <c r="P81" s="130"/>
-      <c r="Q81" s="130"/>
-      <c r="R81" s="130"/>
-      <c r="S81" s="130"/>
-      <c r="T81" s="130"/>
-      <c r="U81" s="130"/>
-      <c r="V81" s="130"/>
-      <c r="W81" s="130"/>
-      <c r="X81" s="130"/>
-      <c r="Y81" s="130"/>
+      <c r="N81" s="139"/>
+      <c r="O81" s="139"/>
+      <c r="P81" s="139"/>
+      <c r="Q81" s="139"/>
+      <c r="R81" s="139"/>
+      <c r="S81" s="139"/>
+      <c r="T81" s="139"/>
+      <c r="U81" s="139"/>
+      <c r="V81" s="139"/>
+      <c r="W81" s="139"/>
+      <c r="X81" s="139"/>
+      <c r="Y81" s="139"/>
     </row>
     <row r="82" spans="1:46" ht="3.75" customHeight="1">
       <c r="A82" s="38"/>
@@ -5857,10 +5822,10 @@
       <c r="AT84" s="9"/>
     </row>
     <row r="85" spans="1:46" ht="14.25" customHeight="1">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="183" t="s">
         <v>200</v>
       </c>
-      <c r="B85" s="120"/>
+      <c r="B85" s="183"/>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
@@ -5912,13 +5877,13 @@
         <v>201</v>
       </c>
       <c r="C86" s="22"/>
-      <c r="D86" s="122" t="s">
+      <c r="D86" s="184" t="s">
         <v>202</v>
       </c>
-      <c r="E86" s="122"/>
-      <c r="F86" s="122"/>
-      <c r="G86" s="122"/>
-      <c r="H86" s="122"/>
+      <c r="E86" s="184"/>
+      <c r="F86" s="184"/>
+      <c r="G86" s="184"/>
+      <c r="H86" s="184"/>
       <c r="I86" s="95"/>
       <c r="J86" s="95"/>
       <c r="K86" s="95"/>
@@ -5964,19 +5929,19 @@
         <v>203</v>
       </c>
       <c r="C87" s="22"/>
-      <c r="D87" s="122" t="s">
+      <c r="D87" s="184" t="s">
         <v>204</v>
       </c>
-      <c r="E87" s="122"/>
-      <c r="F87" s="122"/>
-      <c r="G87" s="122"/>
-      <c r="H87" s="122"/>
-      <c r="I87" s="122"/>
-      <c r="J87" s="122"/>
-      <c r="K87" s="122"/>
-      <c r="L87" s="122"/>
-      <c r="M87" s="122"/>
-      <c r="N87" s="122"/>
+      <c r="E87" s="184"/>
+      <c r="F87" s="184"/>
+      <c r="G87" s="184"/>
+      <c r="H87" s="184"/>
+      <c r="I87" s="184"/>
+      <c r="J87" s="184"/>
+      <c r="K87" s="184"/>
+      <c r="L87" s="184"/>
+      <c r="M87" s="184"/>
+      <c r="N87" s="184"/>
       <c r="O87" s="96"/>
       <c r="P87" s="96"/>
       <c r="Q87" s="96"/>
@@ -6016,17 +5981,17 @@
         <v>205</v>
       </c>
       <c r="C88" s="46"/>
-      <c r="D88" s="122" t="s">
+      <c r="D88" s="184" t="s">
         <v>206</v>
       </c>
-      <c r="E88" s="122"/>
-      <c r="F88" s="122"/>
-      <c r="G88" s="122"/>
-      <c r="H88" s="122"/>
-      <c r="I88" s="122"/>
-      <c r="J88" s="122"/>
-      <c r="K88" s="122"/>
-      <c r="L88" s="122"/>
+      <c r="E88" s="184"/>
+      <c r="F88" s="184"/>
+      <c r="G88" s="184"/>
+      <c r="H88" s="184"/>
+      <c r="I88" s="184"/>
+      <c r="J88" s="184"/>
+      <c r="K88" s="184"/>
+      <c r="L88" s="184"/>
       <c r="M88" s="111"/>
       <c r="N88" s="111"/>
       <c r="O88" s="111"/>
@@ -6070,15 +6035,15 @@
         <v>208</v>
       </c>
       <c r="C89" s="46"/>
-      <c r="D89" s="118" t="s">
+      <c r="D89" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="E89" s="118"/>
-      <c r="F89" s="118"/>
-      <c r="G89" s="118"/>
-      <c r="H89" s="118"/>
-      <c r="I89" s="118"/>
-      <c r="J89" s="118"/>
+      <c r="E89" s="182"/>
+      <c r="F89" s="182"/>
+      <c r="G89" s="182"/>
+      <c r="H89" s="182"/>
+      <c r="I89" s="182"/>
+      <c r="J89" s="182"/>
       <c r="K89" s="47"/>
       <c r="L89" s="47"/>
       <c r="M89" s="47"/>
@@ -6087,14 +6052,14 @@
       <c r="P89" s="47"/>
       <c r="Q89" s="47"/>
       <c r="R89" s="47"/>
-      <c r="S89" s="174" t="s">
+      <c r="S89" s="131" t="s">
         <v>209</v>
       </c>
-      <c r="T89" s="174"/>
-      <c r="U89" s="174"/>
-      <c r="V89" s="174"/>
-      <c r="W89" s="174"/>
-      <c r="X89" s="174"/>
+      <c r="T89" s="131"/>
+      <c r="U89" s="131"/>
+      <c r="V89" s="131"/>
+      <c r="W89" s="131"/>
+      <c r="X89" s="131"/>
       <c r="Y89" s="47"/>
       <c r="Z89" s="8"/>
       <c r="AA89" s="13"/>
@@ -6124,15 +6089,15 @@
         <v>210</v>
       </c>
       <c r="C90" s="48"/>
-      <c r="D90" s="133" t="s">
+      <c r="D90" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="E90" s="133"/>
-      <c r="F90" s="133"/>
-      <c r="G90" s="133"/>
-      <c r="H90" s="133"/>
-      <c r="I90" s="133"/>
-      <c r="J90" s="133"/>
+      <c r="E90" s="193"/>
+      <c r="F90" s="193"/>
+      <c r="G90" s="193"/>
+      <c r="H90" s="193"/>
+      <c r="I90" s="193"/>
+      <c r="J90" s="193"/>
       <c r="K90" s="47"/>
       <c r="L90" s="47"/>
       <c r="M90" s="47"/>
@@ -6141,14 +6106,14 @@
       <c r="P90" s="47"/>
       <c r="Q90" s="47"/>
       <c r="R90" s="47"/>
-      <c r="S90" s="174" t="s">
+      <c r="S90" s="131" t="s">
         <v>211</v>
       </c>
-      <c r="T90" s="174"/>
-      <c r="U90" s="174"/>
-      <c r="V90" s="174"/>
-      <c r="W90" s="174"/>
-      <c r="X90" s="174"/>
+      <c r="T90" s="131"/>
+      <c r="U90" s="131"/>
+      <c r="V90" s="131"/>
+      <c r="W90" s="131"/>
+      <c r="X90" s="131"/>
       <c r="Y90" s="47"/>
       <c r="Z90" s="13"/>
       <c r="AA90" s="13"/>
@@ -6178,15 +6143,15 @@
         <v>196</v>
       </c>
       <c r="C91" s="92"/>
-      <c r="D91" s="125" t="s">
+      <c r="D91" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="E91" s="125"/>
-      <c r="F91" s="125"/>
-      <c r="G91" s="125"/>
-      <c r="H91" s="125"/>
-      <c r="I91" s="125"/>
-      <c r="J91" s="125"/>
+      <c r="E91" s="186"/>
+      <c r="F91" s="186"/>
+      <c r="G91" s="186"/>
+      <c r="H91" s="186"/>
+      <c r="I91" s="186"/>
+      <c r="J91" s="186"/>
       <c r="K91" s="92"/>
       <c r="L91" s="92"/>
       <c r="M91" s="92"/>
@@ -6224,26 +6189,26 @@
       <c r="AT91" s="9"/>
     </row>
     <row r="92" spans="1:46" ht="15" customHeight="1">
-      <c r="A92" s="124" t="s">
+      <c r="A92" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="B92" s="124"/>
+      <c r="B92" s="185"/>
       <c r="C92" s="108"/>
-      <c r="D92" s="173" t="s">
+      <c r="D92" s="129" t="s">
         <v>214</v>
       </c>
-      <c r="E92" s="173"/>
-      <c r="F92" s="173"/>
-      <c r="G92" s="173"/>
-      <c r="H92" s="173"/>
-      <c r="I92" s="173"/>
-      <c r="J92" s="173"/>
-      <c r="K92" s="173"/>
-      <c r="L92" s="173"/>
-      <c r="M92" s="173"/>
-      <c r="N92" s="173"/>
-      <c r="O92" s="173"/>
-      <c r="P92" s="173"/>
+      <c r="E92" s="129"/>
+      <c r="F92" s="129"/>
+      <c r="G92" s="129"/>
+      <c r="H92" s="129"/>
+      <c r="I92" s="129"/>
+      <c r="J92" s="129"/>
+      <c r="K92" s="129"/>
+      <c r="L92" s="129"/>
+      <c r="M92" s="129"/>
+      <c r="N92" s="129"/>
+      <c r="O92" s="129"/>
+      <c r="P92" s="129"/>
       <c r="Q92" s="22"/>
       <c r="R92" s="22"/>
       <c r="T92" s="68"/>
@@ -6278,19 +6243,19 @@
       <c r="A93" s="12"/>
       <c r="B93" s="108"/>
       <c r="C93" s="108"/>
-      <c r="D93" s="173"/>
-      <c r="E93" s="173"/>
-      <c r="F93" s="173"/>
-      <c r="G93" s="173"/>
-      <c r="H93" s="173"/>
-      <c r="I93" s="173"/>
-      <c r="J93" s="173"/>
-      <c r="K93" s="173"/>
-      <c r="L93" s="173"/>
-      <c r="M93" s="173"/>
-      <c r="N93" s="173"/>
-      <c r="O93" s="173"/>
-      <c r="P93" s="173"/>
+      <c r="D93" s="129"/>
+      <c r="E93" s="129"/>
+      <c r="F93" s="129"/>
+      <c r="G93" s="129"/>
+      <c r="H93" s="129"/>
+      <c r="I93" s="129"/>
+      <c r="J93" s="129"/>
+      <c r="K93" s="129"/>
+      <c r="L93" s="129"/>
+      <c r="M93" s="129"/>
+      <c r="N93" s="129"/>
+      <c r="O93" s="129"/>
+      <c r="P93" s="129"/>
       <c r="Q93" s="12"/>
       <c r="R93" s="12"/>
       <c r="T93" s="61"/>
@@ -6325,19 +6290,19 @@
       <c r="A94" s="12"/>
       <c r="B94" s="108"/>
       <c r="C94" s="108"/>
-      <c r="D94" s="173"/>
-      <c r="E94" s="173"/>
-      <c r="F94" s="173"/>
-      <c r="G94" s="173"/>
-      <c r="H94" s="173"/>
-      <c r="I94" s="173"/>
-      <c r="J94" s="173"/>
-      <c r="K94" s="173"/>
-      <c r="L94" s="173"/>
-      <c r="M94" s="173"/>
-      <c r="N94" s="173"/>
-      <c r="O94" s="173"/>
-      <c r="P94" s="173"/>
+      <c r="D94" s="129"/>
+      <c r="E94" s="129"/>
+      <c r="F94" s="129"/>
+      <c r="G94" s="129"/>
+      <c r="H94" s="129"/>
+      <c r="I94" s="129"/>
+      <c r="J94" s="129"/>
+      <c r="K94" s="129"/>
+      <c r="L94" s="129"/>
+      <c r="M94" s="129"/>
+      <c r="N94" s="129"/>
+      <c r="O94" s="129"/>
+      <c r="P94" s="129"/>
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
       <c r="U94" s="62"/>
@@ -6371,19 +6336,19 @@
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
-      <c r="D95" s="173"/>
-      <c r="E95" s="173"/>
-      <c r="F95" s="173"/>
-      <c r="G95" s="173"/>
-      <c r="H95" s="173"/>
-      <c r="I95" s="173"/>
-      <c r="J95" s="173"/>
-      <c r="K95" s="173"/>
-      <c r="L95" s="173"/>
-      <c r="M95" s="173"/>
-      <c r="N95" s="173"/>
-      <c r="O95" s="173"/>
-      <c r="P95" s="173"/>
+      <c r="D95" s="129"/>
+      <c r="E95" s="129"/>
+      <c r="F95" s="129"/>
+      <c r="G95" s="129"/>
+      <c r="H95" s="129"/>
+      <c r="I95" s="129"/>
+      <c r="J95" s="129"/>
+      <c r="K95" s="129"/>
+      <c r="L95" s="129"/>
+      <c r="M95" s="129"/>
+      <c r="N95" s="129"/>
+      <c r="O95" s="129"/>
+      <c r="P95" s="129"/>
       <c r="Q95" s="12"/>
       <c r="R95" s="12"/>
       <c r="S95" s="64"/>
@@ -6461,6 +6426,113 @@
     </row>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="D89:J89"/>
+    <mergeCell ref="O73:R73"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="I72:M72"/>
+    <mergeCell ref="I73:M73"/>
+    <mergeCell ref="D88:L88"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="D91:J91"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="F76:M76"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="B78:E79"/>
+    <mergeCell ref="D90:J90"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:N87"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="R40:Y40"/>
+    <mergeCell ref="R42:Y42"/>
+    <mergeCell ref="R43:Y43"/>
+    <mergeCell ref="R41:Y41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H26:Y28"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="R35:Y35"/>
+    <mergeCell ref="R36:Y36"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A8:Y8"/>
+    <mergeCell ref="A12:Y12"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="A33:Y33"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="R9:X9"/>
+    <mergeCell ref="R10:X10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="O70:R70"/>
+    <mergeCell ref="I65:M65"/>
+    <mergeCell ref="I66:M66"/>
+    <mergeCell ref="I64:M64"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="I67:M67"/>
+    <mergeCell ref="O67:R67"/>
+    <mergeCell ref="O68:R68"/>
+    <mergeCell ref="O69:R69"/>
+    <mergeCell ref="E64:F65"/>
+    <mergeCell ref="R44:Y44"/>
+    <mergeCell ref="R45:Y45"/>
+    <mergeCell ref="R46:Y46"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="V58:Y58"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="V63:Y63"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="I63:M63"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E62:F63"/>
+    <mergeCell ref="I3:Y6"/>
+    <mergeCell ref="V73:Y73"/>
+    <mergeCell ref="V74:Y74"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="R37:Y37"/>
+    <mergeCell ref="R38:Y38"/>
+    <mergeCell ref="R39:Y39"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="V60:Y60"/>
+    <mergeCell ref="U68:Y68"/>
+    <mergeCell ref="V64:Y64"/>
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="R47:Y47"/>
+    <mergeCell ref="R48:Y48"/>
+    <mergeCell ref="I70:M70"/>
+    <mergeCell ref="O72:R72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="I71:M71"/>
+    <mergeCell ref="U67:Y67"/>
+    <mergeCell ref="U69:Y69"/>
     <mergeCell ref="D92:P95"/>
     <mergeCell ref="R49:Y49"/>
     <mergeCell ref="S89:X89"/>
@@ -6485,113 +6557,6 @@
     <mergeCell ref="I68:M68"/>
     <mergeCell ref="I69:M69"/>
     <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I3:Y6"/>
-    <mergeCell ref="V73:Y73"/>
-    <mergeCell ref="V74:Y74"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="R37:Y37"/>
-    <mergeCell ref="R38:Y38"/>
-    <mergeCell ref="R39:Y39"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="V62:Y62"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="V60:Y60"/>
-    <mergeCell ref="U68:Y68"/>
-    <mergeCell ref="V64:Y64"/>
-    <mergeCell ref="S67:T67"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="R47:Y47"/>
-    <mergeCell ref="R48:Y48"/>
-    <mergeCell ref="I70:M70"/>
-    <mergeCell ref="O72:R72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="I71:M71"/>
-    <mergeCell ref="U67:Y67"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="R44:Y44"/>
-    <mergeCell ref="R45:Y45"/>
-    <mergeCell ref="R46:Y46"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="V58:Y58"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="V63:Y63"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="I63:M63"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E62:F63"/>
-    <mergeCell ref="O70:R70"/>
-    <mergeCell ref="I65:M65"/>
-    <mergeCell ref="I66:M66"/>
-    <mergeCell ref="I64:M64"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="I67:M67"/>
-    <mergeCell ref="O67:R67"/>
-    <mergeCell ref="O68:R68"/>
-    <mergeCell ref="O69:R69"/>
-    <mergeCell ref="E64:F65"/>
-    <mergeCell ref="A8:Y8"/>
-    <mergeCell ref="A12:Y12"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="A33:Y33"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="R9:X9"/>
-    <mergeCell ref="R10:X10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="R40:Y40"/>
-    <mergeCell ref="R42:Y42"/>
-    <mergeCell ref="R43:Y43"/>
-    <mergeCell ref="R41:Y41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="H26:Y28"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="R35:Y35"/>
-    <mergeCell ref="R36:Y36"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D89:J89"/>
-    <mergeCell ref="O73:R73"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="I72:M72"/>
-    <mergeCell ref="I73:M73"/>
-    <mergeCell ref="D88:L88"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="D91:J91"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="F76:M76"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="B78:E79"/>
-    <mergeCell ref="D90:J90"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:N87"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="I62:M62"/>
   </mergeCells>
   <conditionalFormatting sqref="B86">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
